--- a/hydrogen_comps/H12_chain/H12_2.64/H12_2.64_energies.xlsx
+++ b/hydrogen_comps/H12_chain/H12_2.64/H12_2.64_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0035836531</v>
+        <v>-0.0035821943</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.99624334</v>
+        <v>-5.99624338</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.999827</v>
+        <v>-5.99982558</v>
       </c>
     </row>
   </sheetData>
